--- a/Lab1/Lab1_3/Matrix.xlsx
+++ b/Lab1/Lab1_3/Matrix.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uithcm-my.sharepoint.com/personal/21521456_ms_uit_edu_vn/Documents/Năm 3/SE357/Team_HW/SE357-Pratice-class/Lab1/Lab1_3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HK1_2023-2024\SE357_BA\SE357-Pratice-class\Lab1\Lab1_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="227" documentId="13_ncr:1_{EFB5B433-251D-43AD-8E14-CAE7A7223D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1160742-56EB-4870-AF31-D741DB3B15AE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{C0E50855-2908-4029-9C61-D84C374B2704}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CustomerReq" sheetId="4" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Construct Requirements Linkage " sheetId="1" r:id="rId3"/>
     <sheet name="RequirementsStakeholderTraceabi" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="60">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -197,32 +196,35 @@
     <t>Rank 1 (lowest importance) – 5 (highest importance)</t>
   </si>
   <si>
-    <t>Stakeholder Source (D - Doctor, N - Nurse, A - Administrative Support Staff, P - Patient, R - Regulator)</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>D, N, A</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>U</t>
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>Stakeholder Source (D - Developer, F - Fashion Retailer, C - Customer, S - Shipper)</t>
+  </si>
+  <si>
+    <t>C,F,D</t>
+  </si>
+  <si>
+    <t>F,D</t>
+  </si>
+  <si>
+    <t>C,D</t>
+  </si>
+  <si>
+    <t>C,F,S,D</t>
+  </si>
+  <si>
+    <t>F,S,D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,8 +244,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,6 +263,12 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -284,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -296,16 +311,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -317,10 +323,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -636,37 +652,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B099E3-1EA6-4387-9CBB-9F2520E0706F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="2"/>
-    <col min="2" max="2" width="19.81640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="42.7265625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.08984375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="8.77734375" style="2"/>
+    <col min="2" max="2" width="19.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -680,7 +696,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -694,7 +710,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="52.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -708,7 +724,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -722,7 +738,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -736,7 +752,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -750,7 +766,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -764,7 +780,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -778,7 +794,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -792,7 +808,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -806,7 +822,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -820,7 +836,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -834,7 +850,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
@@ -856,40 +872,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6044BFF0-6BF3-4599-BADE-0CFF42471909}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="9.90625" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="47.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -902,7 +918,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -915,7 +931,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -928,7 +944,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -943,7 +959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -956,7 +972,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -969,7 +985,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -982,7 +998,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -995,7 +1011,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -1008,7 +1024,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -1021,7 +1037,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
@@ -1034,7 +1050,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
@@ -1049,7 +1065,7 @@
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
@@ -1071,308 +1087,336 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFFCAC3-FC99-4609-A4DA-135E1A03B8A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" style="7" customWidth="1"/>
-    <col min="2" max="16384" width="8" style="7"/>
+    <col min="1" max="1" width="12.109375" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="8" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:14" ht="26.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="B4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="B5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1381,137 +1425,173 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513AC49D-F067-4FBA-BE1E-BC62EA095F66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="C1" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="14">
+        <v>4</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="14">
+        <v>4</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="14">
+        <v>4</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="14">
+        <v>4</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="13">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="C6" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="13">
+        <v>3</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="13">
+        <v>3</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="13">
+        <v>5</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="13">
+        <v>5</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+      <c r="B11" s="13">
+        <v>4</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+      <c r="B12" s="13">
+        <v>4</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+      <c r="B13" s="13">
+        <v>4</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="13">
+        <v>5</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
